--- a/Borrowings.xlsx
+++ b/Borrowings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Inspection Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07BCD3C-8D43-4516-9638-A20E28BD8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19C068-A708-438C-B8BB-9119DD4DB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="120">
   <si>
     <t>2019-20</t>
   </si>
@@ -173,9 +173,6 @@
     <t>https://www.crisilratings.com/mnt/winshare/Ratings/RatingList/RatingDocs/EmbassyOfficeParksReit_January%2019,%202021_RR.html</t>
   </si>
   <si>
-    <t>December 10, 2020</t>
-  </si>
-  <si>
     <t>https://www.crisilratings.com/mnt/winshare/Ratings/RatingList/RatingDocs/EmbassyOfficeParksReit_March%2017,%202022_RR_289877.html</t>
   </si>
   <si>
@@ -254,24 +251,12 @@
     <t>https://www.crisilratings.com/en/home/our-business/ratings/company-factsheet/archived-rating-rationales.html?prodCategory=CGBLR&amp;companyCode=BRIRET</t>
   </si>
   <si>
-    <t>https://www.bseindia.com/xml-data/corpfiling/AttachHis/9461bde2-9401-40ab-ab0e-dfec3deb0602.pdf</t>
-  </si>
-  <si>
-    <t>236618151 (Favour)</t>
-  </si>
-  <si>
     <t>AAA/Negatvive</t>
   </si>
   <si>
     <t>Downgrade</t>
   </si>
   <si>
-    <t>https://www.bseindia.com/xml-data/corpfiling/AttachHis/ed278d5d-2146-4557-96fe-86165b2b355e.pdf</t>
-  </si>
-  <si>
-    <t>273858855 (Favour)</t>
-  </si>
-  <si>
     <t>https://www.icra.in/Rating/AllRatingRationales?Keyword=Brookfield%20India%20Real%20Estate%20Trust</t>
   </si>
   <si>
@@ -299,15 +284,9 @@
     <t>Unitholder Approval</t>
   </si>
   <si>
-    <t>https://nsearchives.nseindia.com/corporate/EMBASSY_17112020121015_EmbassyREITETVBoardMeetingOutcomeNovember172020.pdf</t>
-  </si>
-  <si>
     <t>635,257,302/97,400</t>
   </si>
   <si>
-    <t>Weblink of Disclosure of Notice for Unitholder Meeting (Exchange)</t>
-  </si>
-  <si>
     <t>Mindspace REIT</t>
   </si>
   <si>
@@ -362,9 +341,6 @@
     <t>21/06/2024</t>
   </si>
   <si>
-    <t>https://www.bseindia.com/xml-data/corpfiling/AttachHis/72a30d24-95a3-4481-9ea0-eff54265f809.pdf</t>
-  </si>
-  <si>
     <t>438258200/634</t>
   </si>
   <si>
@@ -402,6 +378,27 @@
   </si>
   <si>
     <t>https://www.icra.in/Rationale/ShowRationaleReport?Id=135624</t>
+  </si>
+  <si>
+    <t>Weblink of Disclosure of Outcome of Unitholder Meeting (Exchange)</t>
+  </si>
+  <si>
+    <t>https://nsearchives.nseindia.com/corporate/EMBASSY_11122020191118_VotingResultsandScrutinizersReport.pdf</t>
+  </si>
+  <si>
+    <t>https://nsearchives.nseindia.com/corporate/BIRET_14012022230425_IntimationofVotingResultsofExtraordinaryMeeting.pdf</t>
+  </si>
+  <si>
+    <t>236618151/1930668</t>
+  </si>
+  <si>
+    <t>https://nsearchives.nseindia.com/corporate/BIRET_13062023201335_IntimationofVotingResultsofEM.pdf</t>
+  </si>
+  <si>
+    <t>273858855/3370084</t>
+  </si>
+  <si>
+    <t>https://nsearchives.nseindia.com/corporate/MINDSPACE_21062024210333_IntimationtoSEVotingResultsandScrutinizersReportsigned.pdf</t>
   </si>
 </sst>
 </file>
@@ -477,7 +474,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -503,12 +500,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -793,11 +784,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -885,40 +874,40 @@
         <v>12</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>26</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>27</v>
@@ -1256,7 +1245,7 @@
       <c r="Y5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1481,11 +1470,11 @@
       <c r="S8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>44</v>
+      <c r="T8" s="6">
+        <v>44175</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="V8" s="4">
         <v>8283</v>
@@ -1494,13 +1483,13 @@
         <v>635354702</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z8" s="6">
-        <v>44152</v>
+      <c r="Z8" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
@@ -1560,22 +1549,22 @@
         <v>42</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T9" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V9" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W9" s="4">
+        <v>635354702</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>16</v>
@@ -1623,7 +1612,7 @@
         <v>44637</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>40</v>
@@ -1641,22 +1630,22 @@
         <v>42</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T10" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V10" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W10" s="4">
+        <v>635354702</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>16</v>
@@ -1704,7 +1693,7 @@
         <v>44637</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>40</v>
@@ -1722,22 +1711,22 @@
         <v>42</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T11" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V11" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W11" s="4">
+        <v>635354702</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>16</v>
@@ -1785,7 +1774,7 @@
         <v>44637</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>40</v>
@@ -1803,22 +1792,22 @@
         <v>42</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T12" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W12" s="4">
+        <v>635354702</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>16</v>
@@ -1866,7 +1855,7 @@
         <v>44637</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>40</v>
@@ -1884,22 +1873,22 @@
         <v>42</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T13" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V13" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W13" s="4">
+        <v>635354702</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>16</v>
@@ -1947,7 +1936,7 @@
         <v>44985</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>40</v>
@@ -1965,22 +1954,22 @@
         <v>42</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T14" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V14" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W14" s="4">
+        <v>635354702</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>16</v>
@@ -2028,7 +2017,7 @@
         <v>44985</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>40</v>
@@ -2046,22 +2035,22 @@
         <v>42</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T15" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W15" s="4">
+        <v>635354702</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>16</v>
@@ -2109,40 +2098,40 @@
         <v>44985</v>
       </c>
       <c r="M16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P16" s="6">
         <v>44921</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T16" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V16" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W16" s="4">
+        <v>635354702</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>16</v>
@@ -2190,40 +2179,40 @@
         <v>44985</v>
       </c>
       <c r="M17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P17" s="6">
         <v>44921</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T17" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V17" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W17" s="4">
+        <v>635354702</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>16</v>
@@ -2271,40 +2260,40 @@
         <v>45289</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P18" s="6">
         <v>45293</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T18" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V18" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W18" s="4">
+        <v>635354702</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>16</v>
@@ -2352,40 +2341,40 @@
         <v>45289</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P19" s="6">
         <v>45293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T19" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V19" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W19" s="4">
+        <v>635354702</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>16</v>
@@ -2433,40 +2422,40 @@
         <v>45289</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P20" s="6">
         <v>45293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T20" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V20" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W20" s="4">
+        <v>635354702</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>16</v>
@@ -2514,40 +2503,40 @@
         <v>45289</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P21" s="6">
         <v>45293</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T21" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V21" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W21" s="4">
+        <v>635354702</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>16</v>
@@ -2595,40 +2584,40 @@
         <v>45636</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P22" s="6">
         <v>45635</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T22" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V22" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W22" s="4">
+        <v>635354702</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>16</v>
@@ -2676,40 +2665,40 @@
         <v>45636</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P23" s="6">
         <v>45635</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T23" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V23" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W23" s="4">
+        <v>635354702</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>16</v>
@@ -2757,40 +2746,40 @@
         <v>45636</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P24" s="6">
         <v>45635</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T24" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V24" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W24" s="4">
+        <v>635354702</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>16</v>
@@ -2838,40 +2827,40 @@
         <v>45636</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P25" s="6">
         <v>45635</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T25" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V25" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W25" s="4">
+        <v>635354702</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>16</v>
@@ -2919,40 +2908,40 @@
         <v>45818</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="P26" s="6">
         <v>45827</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="T26" s="6">
+        <v>44175</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V26" s="4">
+        <v>8283</v>
+      </c>
+      <c r="W26" s="4">
+        <v>635354702</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>16</v>
@@ -2991,7 +2980,7 @@
         <v>0.1601440893984076</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>13</v>
@@ -3000,10 +2989,10 @@
         <v>45076</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>14</v>
@@ -3012,11 +3001,11 @@
         <v>45078</v>
       </c>
       <c r="Q27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>40</v>
       </c>
@@ -3038,7 +3027,9 @@
       <c r="Y27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z27" s="3"/>
+      <c r="Z27" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
@@ -3070,7 +3061,7 @@
         <v>0.15946549118801634</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>13</v>
@@ -3079,10 +3070,10 @@
         <v>45076</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>14</v>
@@ -3091,11 +3082,11 @@
         <v>45078</v>
       </c>
       <c r="Q28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="S28" s="3" t="s">
         <v>40</v>
       </c>
@@ -3117,7 +3108,9 @@
       <c r="Y28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z28" s="3"/>
+      <c r="Z28" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
@@ -3149,7 +3142,7 @@
         <v>0.16525803590493243</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>13</v>
@@ -3158,10 +3151,10 @@
         <v>45076</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>14</v>
@@ -3170,11 +3163,11 @@
         <v>45078</v>
       </c>
       <c r="Q29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>40</v>
       </c>
@@ -3196,7 +3189,9 @@
       <c r="Y29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z29" s="3"/>
+      <c r="Z29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
@@ -3228,7 +3223,7 @@
         <v>0.16367764217556877</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>13</v>
@@ -3237,10 +3232,10 @@
         <v>45385</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>14</v>
@@ -3249,10 +3244,10 @@
         <v>45422</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>40</v>
@@ -3275,7 +3270,9 @@
       <c r="Y30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z30" s="3"/>
+      <c r="Z30" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
@@ -3307,7 +3304,7 @@
         <v>0.1643825242489042</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>13</v>
@@ -3316,10 +3313,10 @@
         <v>45385</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>14</v>
@@ -3328,10 +3325,10 @@
         <v>45422</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>40</v>
@@ -3354,7 +3351,9 @@
       <c r="Y31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z31" s="3"/>
+      <c r="Z31" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
@@ -3386,7 +3385,7 @@
         <v>0.16394804169359925</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>13</v>
@@ -3395,10 +3394,10 @@
         <v>45385</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>14</v>
@@ -3407,10 +3406,10 @@
         <v>45524</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>15</v>
@@ -3419,7 +3418,7 @@
         <v>45496</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V32" s="4">
         <v>39568</v>
@@ -3428,16 +3427,16 @@
         <v>1263923897</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z32" s="6">
-        <v>45498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>0.18175150274228696</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>13</v>
@@ -3476,10 +3475,10 @@
         <v>45574</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>14</v>
@@ -3488,10 +3487,10 @@
         <v>45574</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>40</v>
@@ -3514,9 +3513,11 @@
       <c r="Y33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z33" s="3"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>0.18974074746667635</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>13</v>
@@ -3555,10 +3556,10 @@
         <v>45833</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>14</v>
@@ -3567,10 +3568,10 @@
         <v>45771</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>40</v>
@@ -3593,9 +3594,11 @@
       <c r="Y34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z34" s="3"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>0.20304954044902257</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>13</v>
@@ -3634,10 +3637,10 @@
         <v>45833</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>14</v>
@@ -3646,10 +3649,10 @@
         <v>45771</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>40</v>
@@ -3672,9 +3675,11 @@
       <c r="Y35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -3704,7 +3709,7 @@
         <v>0.14828143615630177</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>13</v>
@@ -3713,7 +3718,7 @@
         <v>44258</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3730,10 +3735,14 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Y36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>0.14805629760768393</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>13</v>
@@ -3772,7 +3781,7 @@
         <v>44258</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3789,10 +3798,14 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Y37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>0.15432179434007526</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>13</v>
@@ -3831,7 +3844,7 @@
         <v>44258</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3848,10 +3861,14 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Y38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -3881,7 +3898,7 @@
         <v>0.16372467683296718</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>13</v>
@@ -3890,7 +3907,7 @@
         <v>44559</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3907,10 +3924,14 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Y39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -3940,7 +3961,7 @@
         <v>0.3033178145794117</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>13</v>
@@ -3949,7 +3970,7 @@
         <v>44559</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3965,7 +3986,7 @@
         <v>44575</v>
       </c>
       <c r="U40" s="7" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="V40" s="4">
         <v>15928</v>
@@ -3974,16 +3995,17 @@
         <v>238548819</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="Y40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z40" s="6">
-        <v>44575</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -4013,7 +4035,7 @@
         <v>0.29750328002304938</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>13</v>
@@ -4022,7 +4044,7 @@
         <v>44680</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -4032,17 +4054,31 @@
         <v>40</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T41" s="6"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="T41" s="6">
+        <v>44575</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="V41" s="4">
+        <v>15928</v>
+      </c>
+      <c r="W41" s="4">
+        <v>238548819</v>
+      </c>
+      <c r="X41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
@@ -4072,7 +4108,7 @@
         <v>0.29541646608364641</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>13</v>
@@ -4081,7 +4117,7 @@
         <v>44680</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -4091,17 +4127,31 @@
         <v>40</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T42" s="6"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="T42" s="6">
+        <v>44575</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="V42" s="4">
+        <v>15928</v>
+      </c>
+      <c r="W42" s="4">
+        <v>238548819</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
@@ -4131,7 +4181,7 @@
         <v>0.29951824205845307</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>13</v>
@@ -4140,7 +4190,7 @@
         <v>44907</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -4150,17 +4200,31 @@
         <v>40</v>
       </c>
       <c r="S43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T43" s="6"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="T43" s="6">
+        <v>44575</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="V43" s="4">
+        <v>15928</v>
+      </c>
+      <c r="W43" s="4">
+        <v>238548819</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -4190,7 +4254,7 @@
         <v>0.30492689094663639</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>13</v>
@@ -4199,7 +4263,7 @@
         <v>44907</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4209,17 +4273,31 @@
         <v>40</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T44" s="6"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="T44" s="6">
+        <v>44575</v>
+      </c>
+      <c r="U44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="V44" s="4">
+        <v>15928</v>
+      </c>
+      <c r="W44" s="4">
+        <v>238548819</v>
+      </c>
+      <c r="X44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -4249,7 +4327,7 @@
         <v>0.31161453381872156</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>13</v>
@@ -4258,14 +4336,14 @@
         <v>45044</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>15</v>
@@ -4274,7 +4352,7 @@
         <v>45089</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="V45" s="4">
         <v>39002</v>
@@ -4283,16 +4361,17 @@
         <v>277228939</v>
       </c>
       <c r="X45" s="4" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z45" s="6">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="Z45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -4322,7 +4401,7 @@
         <v>0.38532562398228787</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>13</v>
@@ -4331,7 +4410,7 @@
         <v>45146</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4341,17 +4420,31 @@
         <v>40</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="T46" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V46" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W46" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>33</v>
       </c>
@@ -4381,7 +4474,7 @@
         <v>0.38829260326405396</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>13</v>
@@ -4390,10 +4483,10 @@
         <v>45146</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>14</v>
@@ -4402,23 +4495,37 @@
         <v>45282</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="T47" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V47" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W47" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>33</v>
       </c>
@@ -4448,7 +4555,7 @@
         <v>0.38349995800596298</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>13</v>
@@ -4457,10 +4564,10 @@
         <v>45146</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>14</v>
@@ -4469,21 +4576,35 @@
         <v>45372</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="T48" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U48" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V48" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W48" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z48" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
@@ -4515,7 +4636,7 @@
         <v>0.39508266563179961</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>13</v>
@@ -4524,10 +4645,10 @@
         <v>45416</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>14</v>
@@ -4536,21 +4657,35 @@
         <v>45436</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="T49" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V49" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W49" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
@@ -4582,7 +4717,7 @@
         <v>0.38019628710215919</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>13</v>
@@ -4591,10 +4726,10 @@
         <v>45562</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>14</v>
@@ -4603,21 +4738,35 @@
         <v>45436</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="T50" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V50" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W50" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
@@ -4649,7 +4798,7 @@
         <v>0.28106866218863014</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K51" s="3" t="s">
         <v>13</v>
@@ -4658,10 +4807,10 @@
         <v>45562</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O51" s="3" t="s">
         <v>14</v>
@@ -4670,21 +4819,35 @@
         <v>45436</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="T51" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V51" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W51" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z51" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
@@ -4716,7 +4879,7 @@
         <v>0.28107265361421113</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>13</v>
@@ -4725,10 +4888,10 @@
         <v>45562</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>14</v>
@@ -4737,21 +4900,35 @@
         <v>45734</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="T52" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V52" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W52" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
@@ -4783,7 +4960,7 @@
         <v>0.2818980644461761</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>13</v>
@@ -4792,10 +4969,10 @@
         <v>45776</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>14</v>
@@ -4804,25 +4981,39 @@
         <v>45734</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>40</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="T53" s="6">
+        <v>45089</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V53" s="4">
+        <v>39002</v>
+      </c>
+      <c r="W53" s="4">
+        <v>277228939</v>
+      </c>
+      <c r="X53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
@@ -4850,7 +5041,7 @@
         <v>0.13489720771943814</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>13</v>
@@ -4859,41 +5050,41 @@
         <v>44000</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P54" s="6"/>
       <c r="Q54" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U54" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>40</v>
@@ -4901,7 +5092,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>1</v>
@@ -4929,7 +5120,7 @@
         <v>0.13638398895476445</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>13</v>
@@ -4938,49 +5129,49 @@
         <v>44176</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U55" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z55" s="6">
-        <v>44177</v>
+        <v>16</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1</v>
@@ -5008,7 +5199,7 @@
         <v>0.13941295715255397</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>13</v>
@@ -5017,49 +5208,49 @@
         <v>44264</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U56" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z56" s="6">
-        <v>44265</v>
+        <v>16</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>2</v>
@@ -5068,7 +5259,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E57" s="4">
         <v>40283.399891309069</v>
@@ -5087,54 +5278,54 @@
         <v>0.14996110110299526</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S57" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U57" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z57" s="10" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>2</v>
@@ -5162,7 +5353,7 @@
         <v>0.14981849844424333</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>13</v>
@@ -5171,10 +5362,10 @@
         <v>44391</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>14</v>
@@ -5183,39 +5374,39 @@
         <v>44455</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U58" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z58" s="6">
-        <v>44392</v>
+        <v>16</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>2</v>
@@ -5243,7 +5434,7 @@
         <v>0.15900994386472386</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>13</v>
@@ -5252,49 +5443,49 @@
         <v>44550</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S59" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U59" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z59" s="6">
-        <v>44552</v>
+        <v>16</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>2</v>
@@ -5322,56 +5513,56 @@
         <v>0.15865540304289585</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U60" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z60" s="11" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>3</v>
@@ -5380,7 +5571,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E61" s="4">
         <v>47530</v>
@@ -5399,7 +5590,7 @@
         <v>0.1677790572584433</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>13</v>
@@ -5408,10 +5599,10 @@
         <v>44711</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>14</v>
@@ -5420,39 +5611,39 @@
         <v>44728</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U61" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y61" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z61" s="6">
-        <v>44714</v>
+        <v>16</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>3</v>
@@ -5480,7 +5671,7 @@
         <v>0.17035569633377673</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>13</v>
@@ -5489,49 +5680,49 @@
         <v>44811</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T62" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U62" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z62" s="6">
-        <v>44818</v>
+        <v>16</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>3</v>
@@ -5559,56 +5750,56 @@
         <v>0.1786429339388946</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>3</v>
@@ -5636,7 +5827,7 @@
         <v>0.18215974167305943</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>13</v>
@@ -5645,10 +5836,10 @@
         <v>44985</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>14</v>
@@ -5657,39 +5848,39 @@
         <v>44977</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="U64" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z64" s="6">
-        <v>44960</v>
+        <v>16</v>
+      </c>
+      <c r="Z64" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>4</v>
@@ -5698,7 +5889,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E65" s="4">
         <v>61199</v>
@@ -5717,7 +5908,7 @@
         <v>0.20581235616291724</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K65" s="3" t="s">
         <v>13</v>
@@ -5726,10 +5917,10 @@
         <v>45068</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O65" s="3" t="s">
         <v>14</v>
@@ -5738,19 +5929,19 @@
         <v>45069</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>15</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="U65" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="V65" s="3">
         <v>63636</v>
@@ -5759,18 +5950,18 @@
         <v>438258834</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="Y65" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z65" s="6">
-        <v>45070</v>
+        <v>16</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>4</v>
@@ -5798,7 +5989,7 @@
         <v>0.21410708493339892</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>13</v>
@@ -5807,10 +5998,10 @@
         <v>45161</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>14</v>
@@ -5819,39 +6010,39 @@
         <v>45168</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T66" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U66" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V66" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W66" s="3">
+        <v>438258834</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z66" s="6">
-        <v>45163</v>
+        <v>16</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
@@ -5879,7 +6070,7 @@
         <v>0.22485593871436696</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>13</v>
@@ -5888,49 +6079,49 @@
         <v>45287</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O67" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S67" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W67" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V67" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W67" s="3">
+        <v>438258834</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z67" s="6">
-        <v>45289</v>
+        <v>16</v>
+      </c>
+      <c r="Z67" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
@@ -5958,7 +6149,7 @@
         <v>0.22551279911427513</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>13</v>
@@ -5967,10 +6158,10 @@
         <v>45350</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>14</v>
@@ -5979,39 +6170,39 @@
         <v>45350</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T68" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U68" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W68" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V68" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W68" s="3">
+        <v>438258834</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z68" s="6">
-        <v>45351</v>
+        <v>16</v>
+      </c>
+      <c r="Z68" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>5</v>
@@ -6020,7 +6211,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E69" s="4">
         <v>75202.734481559964</v>
@@ -6039,7 +6230,7 @@
         <v>0.23372096141791915</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>13</v>
@@ -6048,10 +6239,10 @@
         <v>45468</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O69" s="3" t="s">
         <v>14</v>
@@ -6060,39 +6251,39 @@
         <v>45462</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U69" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W69" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V69" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W69" s="3">
+        <v>438258834</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z69" s="6">
-        <v>45408</v>
+        <v>16</v>
+      </c>
+      <c r="Z69" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>5</v>
@@ -6120,54 +6311,56 @@
         <v>0.23248928839517236</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T70" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U70" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W70" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V70" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W70" s="3">
+        <v>438258834</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z70" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="Z70" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>5</v>
@@ -6195,17 +6388,17 @@
         <v>0.2420861347509595</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>14</v>
@@ -6214,37 +6407,39 @@
         <v>45643</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S71" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U71" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W71" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V71" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W71" s="3">
+        <v>438258834</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y71" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z71" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>5</v>
@@ -6272,7 +6467,7 @@
         <v>0.2588684762394311</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>13</v>
@@ -6281,10 +6476,10 @@
         <v>45733</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>14</v>
@@ -6293,39 +6488,39 @@
         <v>45698</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U72" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V72" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W72" s="3">
+        <v>438258834</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z72" s="6">
-        <v>45734</v>
+        <v>16</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>6</v>
@@ -6334,7 +6529,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E73" s="4">
         <v>103260.81</v>
@@ -6353,7 +6548,7 @@
         <v>0.26788560139491857</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>13</v>
@@ -6362,10 +6557,10 @@
         <v>45814</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>14</v>
@@ -6374,38 +6569,39 @@
         <v>45817</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="S73" s="3" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="U73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="V73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="W73" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
+      </c>
+      <c r="V73" s="3">
+        <v>63636</v>
+      </c>
+      <c r="W73" s="3">
+        <v>438258834</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Y73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z73" s="6">
-        <v>45817</v>
+        <v>16</v>
+      </c>
+      <c r="Z73" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <autoFilter ref="A1:Z73" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B53 A74:B499" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -6415,9 +6611,48 @@
     <hyperlink ref="U40" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="U32" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="U8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="U9" r:id="rId5" xr:uid="{CF53C48D-55A2-4236-A45C-412052708F9F}"/>
+    <hyperlink ref="U10" r:id="rId6" xr:uid="{1C5013B0-87AF-4B97-989E-A04964DC4F06}"/>
+    <hyperlink ref="U11" r:id="rId7" xr:uid="{4EB34300-1887-4AEA-AACD-4B5BA053CA5B}"/>
+    <hyperlink ref="U12" r:id="rId8" xr:uid="{3315F51D-3874-46F8-8EDB-AB7F0E0A27D9}"/>
+    <hyperlink ref="U13" r:id="rId9" xr:uid="{146536A9-1296-4489-8C15-0C9938020D41}"/>
+    <hyperlink ref="U14" r:id="rId10" xr:uid="{D8CD0FB9-ACD0-42F5-833F-3D70964BB93B}"/>
+    <hyperlink ref="U15" r:id="rId11" xr:uid="{9A136B9C-EB1B-460C-820A-B9E8B8450C25}"/>
+    <hyperlink ref="U16" r:id="rId12" xr:uid="{0497D72B-2564-4186-A461-004D42A3A97A}"/>
+    <hyperlink ref="U17" r:id="rId13" xr:uid="{63DEE47D-325F-4CDB-9E84-4D844323846A}"/>
+    <hyperlink ref="U18" r:id="rId14" xr:uid="{703916C2-981C-4FF0-B691-EF1979712F89}"/>
+    <hyperlink ref="U19" r:id="rId15" xr:uid="{6C545324-648E-44E3-90D3-A52EE7C4DB7C}"/>
+    <hyperlink ref="U20" r:id="rId16" xr:uid="{E7EA31A2-8FB0-4F5A-8EAE-B3D5ED9B1C57}"/>
+    <hyperlink ref="U21" r:id="rId17" xr:uid="{89DE8DE8-ECA9-4029-9DD8-8C5BD21516DA}"/>
+    <hyperlink ref="U22" r:id="rId18" xr:uid="{1087E1D1-3948-41BA-A8F1-5747FDDA5ABF}"/>
+    <hyperlink ref="U23" r:id="rId19" xr:uid="{5AF33E86-F9F0-4073-9654-A56629E0BAD4}"/>
+    <hyperlink ref="U24" r:id="rId20" xr:uid="{2A517CFE-D9F1-4619-ABF6-9384466606D9}"/>
+    <hyperlink ref="U25" r:id="rId21" xr:uid="{FC0E90BB-94ED-4969-A0C2-D3D8286B5770}"/>
+    <hyperlink ref="U26" r:id="rId22" xr:uid="{F3CFB85B-652E-456F-A539-4D62544F2459}"/>
+    <hyperlink ref="U41" r:id="rId23" xr:uid="{2A721C8A-744A-475B-8E60-BA9C2324CBD6}"/>
+    <hyperlink ref="U42" r:id="rId24" xr:uid="{90F4CCE1-2B89-47B0-9ABA-3BB0A0FB29E0}"/>
+    <hyperlink ref="U43" r:id="rId25" xr:uid="{CA238561-119B-49C2-B4EE-27DD6FBC6F00}"/>
+    <hyperlink ref="U44" r:id="rId26" xr:uid="{C463F9B3-FF58-4D45-8DCB-607C3E175A1B}"/>
+    <hyperlink ref="U46" r:id="rId27" xr:uid="{1732BC2F-77A8-4984-BEAC-62758DA03F8F}"/>
+    <hyperlink ref="U47" r:id="rId28" xr:uid="{DC85BC53-C26B-4AAB-A676-82D340B90494}"/>
+    <hyperlink ref="U48" r:id="rId29" xr:uid="{1E9741BD-9176-4428-872E-2D67D9AD719F}"/>
+    <hyperlink ref="U49" r:id="rId30" xr:uid="{7F97AE39-8FEC-44D3-927A-6B66EBEB3874}"/>
+    <hyperlink ref="U50" r:id="rId31" xr:uid="{8AE1DE70-6F0E-422A-94B9-D1B4B1E492D8}"/>
+    <hyperlink ref="U51" r:id="rId32" xr:uid="{6E2DC3C3-18CA-4DAC-9DDB-E74928DFEEDC}"/>
+    <hyperlink ref="U52" r:id="rId33" xr:uid="{D00A4AAD-4185-4886-9D85-0EAB9F90A95E}"/>
+    <hyperlink ref="U53" r:id="rId34" xr:uid="{1250D952-A441-4FEE-91A1-FDC0CFCCC5C4}"/>
+    <hyperlink ref="U65" r:id="rId35" xr:uid="{8E20B825-8012-450B-B1FF-3DECDC45EA11}"/>
+    <hyperlink ref="U66" r:id="rId36" xr:uid="{ACD6D569-C018-4C14-B2AA-3919AF7532A0}"/>
+    <hyperlink ref="U67" r:id="rId37" xr:uid="{81E01F9E-92CC-415C-93D0-CAB5BFF0DF36}"/>
+    <hyperlink ref="U68" r:id="rId38" xr:uid="{4DB7D86E-A5F8-42AC-99A4-496DFDECFBAA}"/>
+    <hyperlink ref="U69" r:id="rId39" xr:uid="{B778D564-DF26-4DDE-ABD8-7BA51046F967}"/>
+    <hyperlink ref="U70" r:id="rId40" xr:uid="{84505F26-133C-4760-8181-F58CF2D815BD}"/>
+    <hyperlink ref="U71" r:id="rId41" xr:uid="{C15A847C-3B5A-4447-AE6B-4CE194621356}"/>
+    <hyperlink ref="U72" r:id="rId42" xr:uid="{AB1C774A-42DE-4E78-985D-067449954C79}"/>
+    <hyperlink ref="U73" r:id="rId43" xr:uid="{3CA719AD-735F-403C-8F6B-E81C84FB6DA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
